--- a/data/thermal_producers.xlsx
+++ b/data/thermal_producers.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TM\SynergyFlex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TM_SynergyFlex_Nikola\SynergyFlex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA57884-656C-41E0-9349-4C3CDE28BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4F44C5-D178-4251-B307-B2CC8F7340D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Poêle à bois" sheetId="1" r:id="rId1"/>
-    <sheet name="Poêle à pellet" sheetId="2" r:id="rId2"/>
-    <sheet name="Chaudière à bûche" sheetId="3" r:id="rId3"/>
-    <sheet name="Chaudière à pellet" sheetId="4" r:id="rId4"/>
-    <sheet name="Chaudière à gaz" sheetId="5" r:id="rId5"/>
-    <sheet name="Chaudière à mazout" sheetId="6" r:id="rId6"/>
-    <sheet name="Electrique" sheetId="7" r:id="rId7"/>
-    <sheet name="PAC air-eau" sheetId="8" r:id="rId8"/>
-    <sheet name="PAC eau-eau" sheetId="9" r:id="rId9"/>
-    <sheet name="Solaire thermique" sheetId="11" r:id="rId10"/>
+    <sheet name="Wood stove" sheetId="1" r:id="rId1"/>
+    <sheet name="Pellet stove" sheetId="2" r:id="rId2"/>
+    <sheet name="Log boiler" sheetId="3" r:id="rId3"/>
+    <sheet name="Pellet boiler" sheetId="4" r:id="rId4"/>
+    <sheet name="Gaz boiler" sheetId="5" r:id="rId5"/>
+    <sheet name="Oil boiler" sheetId="6" r:id="rId6"/>
+    <sheet name="Electric Heater" sheetId="7" r:id="rId7"/>
+    <sheet name="Air-to-Water Heat pump" sheetId="8" r:id="rId8"/>
+    <sheet name="Water-to-Water Heat pump" sheetId="9" r:id="rId9"/>
+    <sheet name="Solar Thermal" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,112 +47,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="22">
   <si>
-    <t>Paramètres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeurs </t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>Puissance min</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
-    <t>Puissance max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendement </t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t xml:space="preserve">Capex </t>
-  </si>
-  <si>
     <t>CHF/kW</t>
   </si>
   <si>
-    <t>Opex</t>
-  </si>
-  <si>
     <t>CHF/an</t>
   </si>
   <si>
-    <r>
-      <t>Coût de l'énergie</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-  </si>
-  <si>
     <t>CHF/kWh</t>
   </si>
   <si>
-    <r>
-      <t>Emission de CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>kg CO2-eq/kWh</t>
   </si>
   <si>
-    <t>Durée de vie</t>
-  </si>
-  <si>
     <t>ans</t>
   </si>
   <si>
-    <t>Exergie</t>
-  </si>
-  <si>
     <t>°C</t>
   </si>
   <si>
-    <t>Température max.</t>
-  </si>
-  <si>
     <t>SCOP</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Min power</t>
+  </si>
+  <si>
+    <t>Max power</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>Energy cost</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Max temperature</t>
+  </si>
+  <si>
+    <t>Exergy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,9 +169,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}" name="Tableau134" displayName="Tableau134" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FF8DA2B9-1241-4599-BC3B-E7285739DDA0}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{F1A0F715-6D95-4A71-8EE8-96DADA8869EC}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{5B8D9BC0-DED6-4DE6-BA74-DD98CC3B29AE}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{FF8DA2B9-1241-4599-BC3B-E7285739DDA0}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{F1A0F715-6D95-4A71-8EE8-96DADA8869EC}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{5B8D9BC0-DED6-4DE6-BA74-DD98CC3B29AE}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -215,9 +181,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB8137A4-E162-414A-8E95-D9AAE772B64F}" name="Tableau1343567891011" displayName="Tableau1343567891011" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1D303DF8-D36C-4A70-ABFE-773600D2CF4D}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{8A5FB429-636F-40D5-934E-02D72FF5202B}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{13FDBC86-DE8C-445A-9977-554D16D00D86}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{1D303DF8-D36C-4A70-ABFE-773600D2CF4D}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{8A5FB429-636F-40D5-934E-02D72FF5202B}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{13FDBC86-DE8C-445A-9977-554D16D00D86}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -227,9 +193,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E3ACCF3-8FF3-4BEB-AD5B-3193996CA325}" name="Tableau1343" displayName="Tableau1343" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0340C9BB-2DD3-4469-9994-5657F54B4EF2}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{CD2731E7-00EB-43B4-9059-3D5CBA324BBF}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{D5CC19B3-9C0A-4124-A52C-7858B947B00B}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{0340C9BB-2DD3-4469-9994-5657F54B4EF2}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{CD2731E7-00EB-43B4-9059-3D5CBA324BBF}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{D5CC19B3-9C0A-4124-A52C-7858B947B00B}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -239,9 +205,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B4DF81E0-0128-41AB-BFD0-56EF1E1FCE22}" name="Tableau13434" displayName="Tableau13434" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F4855D8C-0A4A-42C3-9547-B542BDC25A6F}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{03164264-BAFD-4F12-AE6A-D00E8DA7B925}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{993D111B-6319-4C1B-8BE6-FCBC122CD050}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{F4855D8C-0A4A-42C3-9547-B542BDC25A6F}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{03164264-BAFD-4F12-AE6A-D00E8DA7B925}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{993D111B-6319-4C1B-8BE6-FCBC122CD050}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -251,9 +217,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30E8815B-EC3F-489A-A21F-9936307C8FB8}" name="Tableau13435" displayName="Tableau13435" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4EC5359B-502A-45F1-AA0F-F3B6EB673F93}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{B99D4455-4022-432B-894E-BB1691614A43}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{E618B283-BDF0-46A1-A6CE-D3D59710170E}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{4EC5359B-502A-45F1-AA0F-F3B6EB673F93}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{B99D4455-4022-432B-894E-BB1691614A43}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{E618B283-BDF0-46A1-A6CE-D3D59710170E}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -263,9 +229,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECF75533-E7B4-4947-879B-7B41E4B1D9A6}" name="Tableau134356" displayName="Tableau134356" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A317B8A7-979E-4BAB-9C39-23ECA374CD1C}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{AD4EA525-8B3F-4555-81A4-E11D27BB5D76}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{9021AA46-F705-43D9-89AA-DF0C99D72F68}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{A317B8A7-979E-4BAB-9C39-23ECA374CD1C}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{AD4EA525-8B3F-4555-81A4-E11D27BB5D76}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{9021AA46-F705-43D9-89AA-DF0C99D72F68}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -275,9 +241,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4DAAF2CD-6219-449D-B873-C73B5FE977D0}" name="Tableau1343567" displayName="Tableau1343567" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{866CD0AE-D904-4126-A3DE-A38E5509865C}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{851F56A4-F0BD-4764-8ABD-65710077365F}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{EA420FCF-D3F7-41EF-A48E-678BED7E0B00}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{866CD0AE-D904-4126-A3DE-A38E5509865C}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{851F56A4-F0BD-4764-8ABD-65710077365F}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{EA420FCF-D3F7-41EF-A48E-678BED7E0B00}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -287,9 +253,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C18A33D-CD47-4D3A-A6EE-07444D295466}" name="Tableau13435678" displayName="Tableau13435678" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0DE37157-BED4-4754-B18D-88975203CBFC}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{0E413234-88B5-47DE-89BF-0E8EBCD7D8F2}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{3CD8FC3D-EE8D-4CED-B153-CC91FFC7D8E1}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{0DE37157-BED4-4754-B18D-88975203CBFC}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{0E413234-88B5-47DE-89BF-0E8EBCD7D8F2}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{3CD8FC3D-EE8D-4CED-B153-CC91FFC7D8E1}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -299,9 +265,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{97671291-66F0-4B26-97A7-B2106F1DB750}" name="Tableau134356789" displayName="Tableau134356789" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{14F16C07-C704-43C3-94B8-5F90FC1E9970}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{9EF774AE-0603-40DD-86B3-0B4E7F96BA0F}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{20D00669-8725-46DA-8C75-5BD8E52C83DB}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{14F16C07-C704-43C3-94B8-5F90FC1E9970}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{9EF774AE-0603-40DD-86B3-0B4E7F96BA0F}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{20D00669-8725-46DA-8C75-5BD8E52C83DB}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -311,9 +277,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{56FB6B72-2552-4BE1-B4A5-DB984C6918D2}" name="Tableau13435678910" displayName="Tableau13435678910" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11" xr:uid="{388BC0C4-93ED-4593-86CE-0919855710C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CDC50062-F959-4E42-8D93-4F7C52FE7BBB}" name="Paramètres"/>
-    <tableColumn id="2" xr3:uid="{B94D35B7-4577-4798-A994-0D1A2D737FBA}" name="Valeurs "/>
-    <tableColumn id="3" xr3:uid="{C4B3291E-99D7-45AD-A778-514D7B2D6A50}" name="Unité"/>
+    <tableColumn id="1" xr3:uid="{CDC50062-F959-4E42-8D93-4F7C52FE7BBB}" name="Parameters"/>
+    <tableColumn id="2" xr3:uid="{B94D35B7-4577-4798-A994-0D1A2D737FBA}" name="Values "/>
+    <tableColumn id="3" xr3:uid="{C4B3291E-99D7-45AD-A778-514D7B2D6A50}" name="Units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +552,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,101 +564,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2.3E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -703,18 +669,18 @@
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -729,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D018B32-271A-460D-B713-49307732EFD2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,101 +708,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.125</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -847,18 +813,18 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +841,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,101 +853,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.09</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -992,18 +958,18 @@
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +986,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,101 +998,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2.3E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1137,18 +1103,18 @@
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1131,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1177,101 +1143,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.09</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1282,18 +1248,18 @@
         <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1308,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CEA20-A949-487D-B21C-BB3C9E3E40B0}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I38:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1321,101 +1287,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1426,18 +1392,18 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1419,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,101 +1431,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.32400000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1570,18 +1536,18 @@
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1563,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,101 +1575,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.125</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1714,18 +1680,18 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1707,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,101 +1719,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.125</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1858,18 +1824,18 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1851,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1897,101 +1863,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.125</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2002,18 +1968,18 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
